--- a/Check-list/Чек-лист  тестирования части требований мобильного приложения Яндекс.Метро.xlsx
+++ b/Check-list/Чек-лист  тестирования части требований мобильного приложения Яндекс.Метро.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapad\OneDrive\Рабочий стол\Портфолио\Чек-листы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapad\git\QA_engineer_Yandex.Practicum\Check-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7C7C9A-7983-4F53-A8F4-66367622C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D36B79-7FB5-47C9-BDE3-DC642B639938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,10 +442,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -478,6 +474,10 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -713,17 +713,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -755,7 +755,7 @@
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -770,10 +770,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -787,7 +787,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
@@ -796,7 +796,7 @@
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <v>3</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -811,7 +811,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
+      <c r="A9" s="35">
         <v>4</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -826,7 +826,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <v>5</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -839,10 +839,10 @@
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>6</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -856,7 +856,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <v>7</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -871,10 +871,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>8</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="17"/>
@@ -882,10 +882,10 @@
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <v>9</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -897,10 +897,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>10</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -912,10 +912,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="35">
         <v>11</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -927,10 +927,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
+      <c r="A17" s="35">
         <v>12</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -942,10 +942,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="35">
         <v>13</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -959,10 +959,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37">
+      <c r="A19" s="35">
         <v>14</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -974,10 +974,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37">
+      <c r="A20" s="35">
         <v>15</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -989,7 +989,7 @@
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
@@ -998,10 +998,10 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37">
+      <c r="A22" s="35">
         <v>16</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -1013,7 +1013,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37">
+      <c r="A23" s="35">
         <v>17</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -1028,7 +1028,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37">
+      <c r="A25" s="35">
         <v>18</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -1052,7 +1052,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="35">
         <v>19</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -1078,7 +1078,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="18" t="s">
         <v>36</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
+      <c r="A29" s="35">
         <v>20</v>
       </c>
       <c r="B29" s="30" t="s">
@@ -1102,10 +1102,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37">
+      <c r="A30" s="35">
         <v>21</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -1115,10 +1115,10 @@
       <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
+      <c r="A31" s="35">
         <v>22</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="41" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -1130,14 +1130,14 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="29"/>
       <c r="C32" s="19"/>
       <c r="D32" s="17"/>
       <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="18" t="s">
         <v>40</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
+      <c r="A34" s="35">
         <v>23</v>
       </c>
       <c r="B34" s="21" t="s">
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
+      <c r="A35" s="35">
         <v>24</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="18" t="s">
         <v>45</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
+      <c r="A37" s="35">
         <v>25</v>
       </c>
       <c r="B37" s="21" t="s">
@@ -1206,7 +1206,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37">
+      <c r="A38" s="35">
         <v>26</v>
       </c>
       <c r="B38" s="30" t="s">
@@ -1221,7 +1221,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37">
+      <c r="A39" s="35">
         <v>27</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -1236,7 +1236,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37">
+      <c r="A40" s="35">
         <v>28</v>
       </c>
       <c r="B40" s="21" t="s">
@@ -1251,7 +1251,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37">
+      <c r="A41" s="35">
         <v>29</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -1266,7 +1266,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37">
+      <c r="A42" s="35">
         <v>30</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -1281,943 +1281,943 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="1"/>
       <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="41"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="1"/>
       <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="41"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="1"/>
       <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="41"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="1"/>
       <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="41"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="1"/>
       <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="41"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="1"/>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="1"/>
       <c r="E49" s="31"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="41"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="1"/>
       <c r="E50" s="31"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="41"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="1"/>
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="41"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="1"/>
       <c r="E52" s="31"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="41"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="1"/>
       <c r="E53" s="31"/>
     </row>
     <row r="54" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="41"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="1"/>
       <c r="E54" s="31"/>
     </row>
     <row r="55" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="41"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="1"/>
       <c r="E55" s="31"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="41"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="1"/>
       <c r="E56" s="31"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="41"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="1"/>
       <c r="E57" s="31"/>
     </row>
     <row r="58" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="41"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="1"/>
       <c r="E58" s="31"/>
     </row>
     <row r="59" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="41"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="1"/>
       <c r="E59" s="31"/>
     </row>
     <row r="60" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="41"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="1"/>
       <c r="E60" s="31"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="41"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="1"/>
       <c r="E61" s="31"/>
     </row>
     <row r="62" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="41"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="1"/>
       <c r="E62" s="31"/>
     </row>
     <row r="63" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="41"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="1"/>
       <c r="E63" s="31"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="41"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="1"/>
       <c r="E64" s="31"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="41"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="1"/>
       <c r="E65" s="31"/>
     </row>
     <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="41"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="1"/>
       <c r="E66" s="31"/>
     </row>
     <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="41"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="1"/>
       <c r="E67" s="31"/>
     </row>
     <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="41"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="1"/>
       <c r="E68" s="31"/>
     </row>
     <row r="69" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="41"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="1"/>
       <c r="E69" s="31"/>
     </row>
     <row r="70" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="41"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="1"/>
       <c r="E70" s="31"/>
     </row>
     <row r="71" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="41"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="1"/>
       <c r="E71" s="31"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="41"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="1"/>
       <c r="E72" s="31"/>
     </row>
     <row r="73" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="41"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="1"/>
       <c r="E73" s="31"/>
     </row>
     <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="41"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="1"/>
       <c r="E74" s="31"/>
     </row>
     <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="41"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="1"/>
       <c r="E75" s="31"/>
     </row>
     <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="41"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="1"/>
       <c r="E76" s="31"/>
     </row>
     <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="41"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="1"/>
       <c r="E77" s="31"/>
     </row>
     <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="41"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="1"/>
       <c r="E78" s="31"/>
     </row>
     <row r="79" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="41"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="1"/>
       <c r="E79" s="31"/>
     </row>
     <row r="80" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="41"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="1"/>
       <c r="E80" s="31"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="41"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="1"/>
       <c r="E81" s="31"/>
     </row>
     <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="41"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="1"/>
       <c r="E82" s="31"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="41"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="1"/>
       <c r="E83" s="31"/>
     </row>
     <row r="84" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="41"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="1"/>
       <c r="E84" s="31"/>
     </row>
     <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="41"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="1"/>
       <c r="E85" s="31"/>
     </row>
     <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="41"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="1"/>
       <c r="E86" s="31"/>
     </row>
     <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="41"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="1"/>
       <c r="E87" s="31"/>
     </row>
     <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="41"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="1"/>
       <c r="E88" s="31"/>
     </row>
     <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="41"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="1"/>
       <c r="E89" s="31"/>
     </row>
     <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="41"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="1"/>
       <c r="E90" s="31"/>
     </row>
     <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="41"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="1"/>
       <c r="E91" s="31"/>
     </row>
     <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="41"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="1"/>
       <c r="E92" s="31"/>
     </row>
     <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="41"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="1"/>
       <c r="E93" s="31"/>
     </row>
     <row r="94" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="41"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="1"/>
       <c r="E94" s="31"/>
     </row>
     <row r="95" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="41"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="1"/>
       <c r="E95" s="31"/>
     </row>
     <row r="96" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="41"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="1"/>
       <c r="E96" s="31"/>
     </row>
     <row r="97" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="41"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="1"/>
       <c r="E97" s="31"/>
     </row>
     <row r="98" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="41"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="1"/>
       <c r="E98" s="31"/>
     </row>
     <row r="99" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="41"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="1"/>
       <c r="E99" s="31"/>
     </row>
     <row r="100" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="41"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="1"/>
       <c r="E100" s="31"/>
     </row>
     <row r="101" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="41"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="1"/>
       <c r="E101" s="31"/>
     </row>
     <row r="102" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="41"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="1"/>
       <c r="E102" s="31"/>
     </row>
     <row r="103" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="41"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="1"/>
       <c r="E103" s="31"/>
     </row>
     <row r="104" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="41"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="1"/>
       <c r="E104" s="31"/>
     </row>
     <row r="105" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="41"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="1"/>
       <c r="E105" s="31"/>
     </row>
     <row r="106" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="41"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="1"/>
       <c r="E106" s="31"/>
     </row>
     <row r="107" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="41"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="1"/>
       <c r="E107" s="31"/>
     </row>
     <row r="108" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="41"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="1"/>
       <c r="E108" s="31"/>
     </row>
     <row r="109" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="41"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="1"/>
       <c r="E109" s="31"/>
     </row>
     <row r="110" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="41"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="1"/>
       <c r="E110" s="31"/>
     </row>
     <row r="111" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="41"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="1"/>
       <c r="E111" s="31"/>
     </row>
     <row r="112" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="41"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="1"/>
       <c r="E112" s="31"/>
     </row>
     <row r="113" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="41"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="1"/>
       <c r="E113" s="31"/>
     </row>
     <row r="114" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="41"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="1"/>
       <c r="E114" s="31"/>
     </row>
     <row r="115" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="41"/>
+      <c r="B115" s="39"/>
       <c r="C115" s="1"/>
       <c r="E115" s="31"/>
     </row>
     <row r="116" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="41"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="1"/>
       <c r="E116" s="31"/>
     </row>
     <row r="117" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="41"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="1"/>
       <c r="E117" s="31"/>
     </row>
     <row r="118" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="41"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="1"/>
       <c r="E118" s="31"/>
     </row>
     <row r="119" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="41"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="1"/>
       <c r="E119" s="31"/>
     </row>
     <row r="120" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="41"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="1"/>
       <c r="E120" s="31"/>
     </row>
     <row r="121" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="41"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="1"/>
       <c r="E121" s="31"/>
     </row>
     <row r="122" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="41"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="1"/>
       <c r="E122" s="31"/>
     </row>
     <row r="123" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="41"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="1"/>
       <c r="E123" s="31"/>
     </row>
     <row r="124" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="41"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="1"/>
       <c r="E124" s="31"/>
     </row>
     <row r="125" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="41"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="1"/>
       <c r="E125" s="31"/>
     </row>
     <row r="126" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="41"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="1"/>
       <c r="E126" s="31"/>
     </row>
     <row r="127" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="41"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="1"/>
       <c r="E127" s="31"/>
     </row>
     <row r="128" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="41"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="1"/>
       <c r="E128" s="31"/>
     </row>
     <row r="129" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="41"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="1"/>
       <c r="E129" s="31"/>
     </row>
     <row r="130" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="41"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="1"/>
       <c r="E130" s="31"/>
     </row>
     <row r="131" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="41"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="1"/>
       <c r="E131" s="31"/>
     </row>
     <row r="132" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="41"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="1"/>
       <c r="E132" s="31"/>
     </row>
     <row r="133" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="41"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="1"/>
       <c r="E133" s="31"/>
     </row>
     <row r="134" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="41"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="1"/>
       <c r="E134" s="31"/>
     </row>
     <row r="135" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="41"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="1"/>
       <c r="E135" s="31"/>
     </row>
     <row r="136" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="41"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="1"/>
       <c r="E136" s="31"/>
     </row>
     <row r="137" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="41"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="1"/>
       <c r="E137" s="31"/>
     </row>
     <row r="138" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="41"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="1"/>
       <c r="E138" s="31"/>
     </row>
     <row r="139" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="41"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="1"/>
       <c r="E139" s="31"/>
     </row>
     <row r="140" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="41"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="1"/>
       <c r="E140" s="31"/>
     </row>
     <row r="141" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="41"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="1"/>
       <c r="E141" s="31"/>
     </row>
     <row r="142" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="41"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="1"/>
       <c r="E142" s="31"/>
     </row>
     <row r="143" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="41"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="1"/>
       <c r="E143" s="31"/>
     </row>
     <row r="144" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="41"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="1"/>
       <c r="E144" s="31"/>
     </row>
     <row r="145" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="41"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="1"/>
       <c r="E145" s="31"/>
     </row>
     <row r="146" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="41"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="1"/>
       <c r="E146" s="31"/>
     </row>
     <row r="147" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="41"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="1"/>
       <c r="E147" s="31"/>
     </row>
     <row r="148" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="41"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="1"/>
       <c r="E148" s="31"/>
     </row>
     <row r="149" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="41"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="1"/>
       <c r="E149" s="31"/>
     </row>
     <row r="150" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="41"/>
+      <c r="B150" s="39"/>
       <c r="C150" s="1"/>
       <c r="E150" s="31"/>
     </row>
     <row r="151" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="41"/>
+      <c r="B151" s="39"/>
       <c r="C151" s="1"/>
       <c r="E151" s="31"/>
     </row>
     <row r="152" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="41"/>
+      <c r="B152" s="39"/>
       <c r="C152" s="1"/>
       <c r="E152" s="31"/>
     </row>
     <row r="153" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="41"/>
+      <c r="B153" s="39"/>
       <c r="C153" s="1"/>
       <c r="E153" s="31"/>
     </row>
     <row r="154" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="41"/>
+      <c r="B154" s="39"/>
       <c r="C154" s="1"/>
       <c r="E154" s="31"/>
     </row>
     <row r="155" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="41"/>
+      <c r="B155" s="39"/>
       <c r="C155" s="1"/>
       <c r="E155" s="31"/>
     </row>
     <row r="156" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="41"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="1"/>
       <c r="E156" s="31"/>
     </row>
     <row r="157" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="41"/>
+      <c r="B157" s="39"/>
       <c r="C157" s="1"/>
       <c r="E157" s="31"/>
     </row>
     <row r="158" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="41"/>
+      <c r="B158" s="39"/>
       <c r="C158" s="1"/>
       <c r="E158" s="31"/>
     </row>
     <row r="159" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="41"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="1"/>
       <c r="E159" s="31"/>
     </row>
     <row r="160" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="41"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="1"/>
       <c r="E160" s="31"/>
     </row>
     <row r="161" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="41"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="1"/>
       <c r="E161" s="31"/>
     </row>
     <row r="162" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="41"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="1"/>
       <c r="E162" s="31"/>
     </row>
     <row r="163" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="41"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="1"/>
       <c r="E163" s="31"/>
     </row>
     <row r="164" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="41"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="1"/>
       <c r="E164" s="31"/>
     </row>
     <row r="165" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="41"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="1"/>
       <c r="E165" s="31"/>
     </row>
     <row r="166" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="41"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="1"/>
       <c r="E166" s="31"/>
     </row>
     <row r="167" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="41"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="1"/>
       <c r="E167" s="31"/>
     </row>
     <row r="168" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="41"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="1"/>
       <c r="E168" s="31"/>
     </row>
     <row r="169" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="41"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="1"/>
       <c r="E169" s="31"/>
     </row>
     <row r="170" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="41"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="1"/>
       <c r="E170" s="31"/>
     </row>
     <row r="171" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="41"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="1"/>
       <c r="E171" s="31"/>
     </row>
     <row r="172" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="41"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="1"/>
       <c r="E172" s="31"/>
     </row>
     <row r="173" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="41"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="1"/>
       <c r="E173" s="31"/>
     </row>
     <row r="174" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="41"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="1"/>
       <c r="E174" s="31"/>
     </row>
     <row r="175" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="41"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="1"/>
       <c r="E175" s="31"/>
     </row>
     <row r="176" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="41"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="1"/>
       <c r="E176" s="31"/>
     </row>
     <row r="177" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="41"/>
+      <c r="B177" s="39"/>
       <c r="C177" s="1"/>
       <c r="E177" s="31"/>
     </row>
     <row r="178" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="41"/>
+      <c r="B178" s="39"/>
       <c r="C178" s="1"/>
       <c r="E178" s="31"/>
     </row>
     <row r="179" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="41"/>
+      <c r="B179" s="39"/>
       <c r="C179" s="1"/>
       <c r="E179" s="31"/>
     </row>
     <row r="180" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="41"/>
+      <c r="B180" s="39"/>
       <c r="C180" s="1"/>
       <c r="E180" s="31"/>
     </row>
     <row r="181" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="41"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="1"/>
       <c r="E181" s="31"/>
     </row>
     <row r="182" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="41"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="1"/>
       <c r="E182" s="31"/>
     </row>
     <row r="183" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="41"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="1"/>
       <c r="E183" s="31"/>
     </row>
     <row r="184" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="41"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="1"/>
       <c r="E184" s="31"/>
     </row>
     <row r="185" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="41"/>
+      <c r="B185" s="39"/>
       <c r="C185" s="1"/>
       <c r="E185" s="31"/>
     </row>
     <row r="186" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="41"/>
+      <c r="B186" s="39"/>
       <c r="C186" s="1"/>
       <c r="E186" s="31"/>
     </row>
     <row r="187" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="41"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="1"/>
       <c r="E187" s="31"/>
     </row>
     <row r="188" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="41"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="1"/>
       <c r="E188" s="31"/>
     </row>
     <row r="189" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="41"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="1"/>
       <c r="E189" s="31"/>
     </row>
     <row r="190" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="41"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="1"/>
       <c r="E190" s="31"/>
     </row>
     <row r="191" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="41"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="1"/>
       <c r="E191" s="31"/>
     </row>
     <row r="192" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="41"/>
+      <c r="B192" s="39"/>
       <c r="C192" s="1"/>
       <c r="E192" s="31"/>
     </row>
     <row r="193" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="41"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="1"/>
       <c r="E193" s="31"/>
     </row>
     <row r="194" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="41"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="1"/>
       <c r="E194" s="31"/>
     </row>
     <row r="195" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="41"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="1"/>
       <c r="E195" s="31"/>
     </row>
     <row r="196" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="41"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="1"/>
       <c r="E196" s="31"/>
     </row>
     <row r="197" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="41"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="1"/>
       <c r="E197" s="31"/>
     </row>
     <row r="198" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="41"/>
+      <c r="B198" s="39"/>
       <c r="C198" s="1"/>
       <c r="E198" s="31"/>
     </row>
     <row r="199" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="41"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="1"/>
       <c r="E199" s="31"/>
     </row>
     <row r="200" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="41"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="1"/>
       <c r="E200" s="31"/>
     </row>
     <row r="201" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="41"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="1"/>
       <c r="E201" s="31"/>
     </row>
     <row r="202" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="41"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="1"/>
       <c r="E202" s="31"/>
     </row>
     <row r="203" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="41"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="1"/>
       <c r="E203" s="31"/>
     </row>
     <row r="204" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="41"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="1"/>
       <c r="E204" s="31"/>
     </row>
     <row r="205" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="41"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="1"/>
       <c r="E205" s="31"/>
     </row>
     <row r="206" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="41"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="1"/>
       <c r="E206" s="31"/>
     </row>
     <row r="207" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="41"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="1"/>
       <c r="E207" s="31"/>
     </row>
     <row r="208" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="41"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="1"/>
       <c r="E208" s="31"/>
     </row>
     <row r="209" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="41"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="1"/>
       <c r="E209" s="31"/>
     </row>
     <row r="210" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="41"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="1"/>
       <c r="E210" s="31"/>
     </row>
     <row r="211" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="41"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="1"/>
       <c r="E211" s="31"/>
     </row>
     <row r="212" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="41"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="1"/>
       <c r="E212" s="31"/>
     </row>
     <row r="213" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="41"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="1"/>
       <c r="E213" s="31"/>
     </row>
     <row r="214" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="41"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="1"/>
       <c r="E214" s="31"/>
     </row>
     <row r="215" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="41"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="1"/>
       <c r="E215" s="31"/>
     </row>
     <row r="216" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="41"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="1"/>
       <c r="E216" s="31"/>
     </row>
     <row r="217" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="41"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="1"/>
       <c r="E217" s="31"/>
     </row>
     <row r="218" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="41"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="1"/>
       <c r="E218" s="31"/>
     </row>
     <row r="219" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="41"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="1"/>
       <c r="E219" s="31"/>
     </row>
     <row r="220" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="41"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="1"/>
       <c r="E220" s="31"/>
     </row>
     <row r="221" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="41"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="1"/>
       <c r="E221" s="31"/>
     </row>
     <row r="222" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="41"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="1"/>
       <c r="E222" s="31"/>
     </row>
     <row r="223" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="41"/>
+      <c r="B223" s="39"/>
       <c r="C223" s="1"/>
       <c r="E223" s="31"/>
     </row>
     <row r="224" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="41"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="1"/>
       <c r="E224" s="31"/>
     </row>
     <row r="225" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="41"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="1"/>
       <c r="E225" s="31"/>
     </row>
     <row r="226" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="41"/>
+      <c r="B226" s="39"/>
       <c r="C226" s="1"/>
       <c r="E226" s="31"/>
     </row>
     <row r="227" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="41"/>
+      <c r="B227" s="39"/>
       <c r="C227" s="1"/>
       <c r="E227" s="31"/>
     </row>
     <row r="228" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="41"/>
+      <c r="B228" s="39"/>
       <c r="C228" s="1"/>
       <c r="E228" s="31"/>
     </row>
     <row r="229" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="41"/>
+      <c r="B229" s="39"/>
       <c r="C229" s="1"/>
       <c r="E229" s="31"/>
     </row>
     <row r="230" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="41"/>
+      <c r="B230" s="39"/>
       <c r="C230" s="1"/>
       <c r="E230" s="31"/>
     </row>
